--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Clase-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Apoyo social confidencial - escala</t>
+          <t>Apoyo social confidencial - escala (tasa de respuesta: 98,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Clase-trans_orig.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,88</t>
+          <t>30,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,41</t>
+          <t>30,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,15</t>
+          <t>30,27</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,25; 30,37</t>
+          <t>29,41; 30,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,93; 30,81</t>
+          <t>29,96; 30,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,59; 32,41</t>
+          <t>31,59; 32,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,77; 30,48</t>
+          <t>29,87; 30,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,29; 31,97</t>
+          <t>31,29; 31,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,87</t>
+          <t>29,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,23</t>
+          <t>30,19</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,08</t>
+          <t>29,96</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,12; 30,6</t>
+          <t>28,68; 30,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,12; 31,26</t>
+          <t>30,19; 31,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,74; 30,75</t>
+          <t>29,55; 30,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,42; 31,45</t>
+          <t>30,51; 31,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,62; 30,49</t>
+          <t>29,43; 30,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,47; 31,21</t>
+          <t>30,49; 31,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,56</t>
+          <t>29,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,45</t>
+          <t>29,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>29,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -905,12 +905,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,96; 30,08</t>
+          <t>28,59; 29,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,56; 34,23</t>
+          <t>29,55; 34,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,57; 30,26</t>
+          <t>28,42; 30,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,5; 31,13</t>
+          <t>29,52; 31,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,05; 29,93</t>
+          <t>28,73; 29,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,81; 34,09</t>
+          <t>29,75; 34,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,77</t>
+          <t>29,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,99</t>
+          <t>28,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,36</t>
+          <t>29,22</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,32; 30,24</t>
+          <t>29,16; 30,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,59; 30,48</t>
+          <t>29,62; 30,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,43; 29,49</t>
+          <t>28,07; 29,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,94; 30,78</t>
+          <t>29,97; 30,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,03; 29,72</t>
+          <t>28,77; 29,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,88; 30,48</t>
+          <t>29,88; 30,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>28,92</t>
+          <t>28,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>27,74</t>
+          <t>27,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,14</t>
+          <t>28,06</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,06; 29,78</t>
+          <t>27,69; 29,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,47; 30,2</t>
+          <t>28,37; 30,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,12; 28,3</t>
+          <t>27,04; 28,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,26; 31,57</t>
+          <t>28,28; 31,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>27,61; 28,57</t>
+          <t>27,5; 28,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,58; 31,08</t>
+          <t>28,6; 31,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,91</t>
+          <t>30,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,58</t>
+          <t>29,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,88</t>
+          <t>30,1</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29,77; 31,79</t>
+          <t>29,29; 31,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,22; 33,12</t>
+          <t>31,2; 33,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>28,92; 30,19</t>
+          <t>29,3; 30,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,2; 30,19</t>
+          <t>29,22; 30,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,32; 30,36</t>
+          <t>29,47; 30,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,88; 30,79</t>
+          <t>29,93; 30,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,73</t>
+          <t>29,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,36</t>
+          <t>29,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>29,54</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>29,45; 29,97</t>
+          <t>29,32; 29,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,43; 32,58</t>
+          <t>30,43; 32,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,11; 29,59</t>
+          <t>29,16; 29,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,07; 30,85</t>
+          <t>30,08; 30,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,36; 29,71</t>
+          <t>29,34; 29,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,35; 31,58</t>
+          <t>30,36; 31,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">

--- a/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/APOYO_SOCIAL_DUKE_CONF_CONT-Clase-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>31,28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31,27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>30,07</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>31,35</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>31,27</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>31,87</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31,8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>30,45</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>32,03</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>31,8</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>31,55</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31,52</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>30,27</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>31,65</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>31,52</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>30,73; 31,72</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30,81; 31,71</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>29,41; 30,62</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>30,73; 31,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>30,81; 31,71</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>31,39; 32,26</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>31,41; 32,16</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>29,96; 30,93</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>31,59; 32,42</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>31,41; 32,16</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>31,19; 31,86</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31,17; 31,82</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>29,87; 30,66</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>31,29; 31,96</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>31,17; 31,82</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>30,66</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30,32</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>29,69</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>30,74</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>30,32</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>31,02</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>31,19</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>30,19</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>30,99</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>31,19</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>30,83</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30,79</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>29,96</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>30,85</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>30,79</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>30,1; 31,18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29,63; 30,89</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>28,68; 30,45</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>30,19; 31,29</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>29,63; 30,89</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>30,56; 31,51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30,66; 31,61</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>29,55; 30,71</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>30,51; 31,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>30,66; 31,61</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>30,46; 31,16</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30,41; 31,17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>29,43; 30,41</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>30,49; 31,19</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>30,41; 31,17</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>29,79</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30,63</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>29,28</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>32,47</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>30,63</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>30,44</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31,15</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>29,47</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>30,4</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31,15</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>29,99</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30,8</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>29,33</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>32,12</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>30,8</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>29,03; 30,42</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29,95; 31,29</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>28,59; 29,91</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>29,55; 34,21</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>29,95; 31,29</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>29,56; 31,25</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29,95; 32,01</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>28,42; 30,3</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>29,52; 31,24</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>29,95; 32,01</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>29,45; 30,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30,27; 31,36</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>28,73; 29,89</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>29,75; 34,02</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>30,27; 31,36</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>29,92</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30,7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>29,7</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>30,05</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>30,7</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>30,24</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>31,02</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>28,76</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>30,39</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>31,02</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>30,06</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30,86</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>29,22</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>30,2</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>30,86</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>29,46; 30,36</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30,21; 31,14</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>29,16; 30,23</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>29,62; 30,53</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>30,21; 31,14</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>29,86; 30,69</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>30,48; 31,45</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>28,07; 29,42</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>29,97; 30,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>30,48; 31,45</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>29,74; 30,36</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>30,55; 31,2</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>28,77; 29,66</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>29,88; 30,53</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>30,55; 31,2</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>29,13</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29,85</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>28,63</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>29,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>29,85</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>28,28</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>29,52</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>27,73</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>29,51</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>29,52</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>28,6</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,69</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>28,06</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>29,46</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>29,69</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>28,11; 29,87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29,1; 30,6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>27,69; 29,52</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>28,37; 30,1</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>29,1; 30,6</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>27,59; 28,79</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28,66; 30,23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>27,04; 28,32</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>28,28; 31,94</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>28,66; 30,23</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>28,08; 29,05</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29,13; 30,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>27,5; 28,55</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>28,6; 31,25</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>29,13; 30,25</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>31,92</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>28,7</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>30,47</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>32,36</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>28,7</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>29,66</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>27,54</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>29,96</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,7</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>27,54</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>30,19</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>28,07</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>30,1</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>30,37</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>28,07</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>30,63; 32,79</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25,94; 31,65</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>29,29; 31,52</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>31,2; 33,11</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>25,94; 31,65</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>29,2; 30,13</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25,26; 29,97</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>29,3; 30,58</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>29,22; 30,17</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>25,26; 29,97</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>29,75; 30,6</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26,15; 29,8</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>29,47; 30,68</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>29,93; 30,81</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>26,15; 29,8</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>30,36</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>30,64</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>29,64</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>31,05</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>30,64</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>30,09</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>31,01</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>29,45</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>30,36</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>31,01</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>30,22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>30,82</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>29,54</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>30,71</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>30,82</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>30,1; 30,6</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30,37; 30,88</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>29,32; 29,93</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>30,43; 32,48</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>30,37; 30,88</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>29,88; 30,31</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30,76; 31,26</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>29,16; 29,7</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>30,08; 30,87</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>30,76; 31,26</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>30,06; 30,41</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>30,64; 31,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>29,34; 29,74</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>30,36; 31,43</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>30,64; 31,0</t>
         </is>
       </c>
     </row>
